--- a/tests/dataset/test.xlsx
+++ b/tests/dataset/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\programmation\public project\R5.12-Recommendation-System\tests\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\maths_projet\R5.12-Recommendation-System\tests\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B3FC5-D962-4366-9DEF-E8BF76B49F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31FB68-CBCF-4899-BABB-BEAB36FE166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toy_complet" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">3 2 2 3 0 2 4 4 4 1 2 1 1 5 3 0 5 4 0 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">1 2 1 5 4 2 0 2 4 2 3 2 5 5 2 2 3 0 3 5 </t>
-  </si>
-  <si>
     <t>0 4 2 0 3 0 2 1 4 3 3 1 5 1 3 3 1 1 3 2</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>5 5 1 3 3 3 3 2 0 2 5 5 3 3 3 4 2 5 5 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 1 5 4 2 0 2 -1 2 3 2 5 5 2 2 3 0 3 5 </t>
   </si>
 </sst>
 </file>
@@ -307,329 +307,327 @@
   </sheetPr>
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" customWidth="1"/>
+    <col min="1" max="1" width="72.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
   </sheetData>

--- a/tests/dataset/test.xlsx
+++ b/tests/dataset/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\maths_projet\R5.12-Recommendation-System\tests\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\programmation\public project\R5.12-Recommendation-System\tests\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31FB68-CBCF-4899-BABB-BEAB36FE166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79E5130-968C-429B-A389-37C27E8D0D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toy_complet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>5 5 1 3 3 3 3 2 0 2 5 5 3 3 3 4 2 5 5 5</t>
   </si>
   <si>
-    <t xml:space="preserve">1 2 1 5 4 2 0 2 -1 2 3 2 5 5 2 2 3 0 3 5 </t>
+    <t xml:space="preserve">1 -1 -1 5 4 2 0 2 -1 2 3 2 5 5 2 2 3 0 3 5 </t>
   </si>
 </sst>
 </file>
@@ -307,327 +307,329 @@
   </sheetPr>
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.44140625" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
   </sheetData>
